--- a/biology/Zoologie/Fou_masqué/Fou_masqué.xlsx
+++ b/biology/Zoologie/Fou_masqué/Fou_masqué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fou_masqu%C3%A9</t>
+          <t>Fou_masqué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sula dactylatra
 Le Fou masqué (Sula dactylatra) est une espèce de grands oiseaux marins de la famille des Sulidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fou_masqu%C3%A9</t>
+          <t>Fou_masqué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 86 cm pour une envergure de 152 cm. Il ne présente pas de dimorphisme sexuel.
 L'adulte est noir et blanc avec le bec jaune et la face noire. Ces deux caractères et la grande taille permettent de le distinguer du Fou à pieds rouges.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fou_masqu%C3%A9</t>
+          <t>Fou_masqué</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les océans tropicaux, à l'exception de l'Atlantique oriental. Elle est installée sur le territoire français par exemple sur l'Ile Tromelin, où la piste aérienne a été condamnée pour protéger l'espèce.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fou_masqu%C3%A9</t>
+          <t>Fou_masqué</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle pond deux œufs qui sont couvés pendant 43 jours par les deux parents. Les fous masqués n'ont pas de plaque incubatrice ; ils couvent donc les œufs avec leur palmes. Le premier poussin sorti de l'œuf éjecte du nid le second poussin éclos, et devient autonome entre 109 et 151 jours après son éclosion[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle pond deux œufs qui sont couvés pendant 43 jours par les deux parents. Les fous masqués n'ont pas de plaque incubatrice ; ils couvent donc les œufs avec leur palmes. Le premier poussin sorti de l'œuf éjecte du nid le second poussin éclos, et devient autonome entre 109 et 151 jours après son éclosion,.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fou_masqu%C3%A9</t>
+          <t>Fou_masqué</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par six sous-espèces :
 Sula dactylatra bedouti ;
